--- a/product-definitions/spreadsheet/sonde.xlsx
+++ b/product-definitions/spreadsheet/sonde.xlsx
@@ -12,18 +12,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="65">
   <si>
     <t>Name</t>
   </si>
   <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>units</t>
+  </si>
+  <si>
     <t>Variable</t>
-  </si>
-  <si>
-    <t>Length</t>
-  </si>
-  <si>
-    <t>units</t>
   </si>
   <si>
     <t>Attribute</t>
@@ -265,24 +265,24 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="11" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -345,90 +345,90 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
     </row>
     <row r="2" ht="12.0" customHeight="1">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
     </row>
     <row r="3" ht="12.0" customHeight="1">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="4"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
     </row>
     <row r="4" ht="12.0" customHeight="1"/>
     <row r="5" ht="12.0" customHeight="1"/>
@@ -1452,22 +1452,22 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.0" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1480,7 +1480,7 @@
       <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="7" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1494,7 +1494,7 @@
     </row>
     <row r="5" ht="12.0" customHeight="1">
       <c r="B5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
@@ -1520,7 +1520,7 @@
       <c r="B8" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="8">
         <v>-1.0E20</v>
       </c>
     </row>
@@ -1528,7 +1528,7 @@
       <c r="B9" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1572,7 +1572,7 @@
       <c r="B15" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="7" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1586,9 +1586,9 @@
     </row>
     <row r="17" ht="12.0" customHeight="1">
       <c r="B17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       <c r="B20" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="8">
         <v>-1.0E20</v>
       </c>
     </row>
@@ -1620,7 +1620,7 @@
       <c r="B21" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="8" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1658,7 +1658,7 @@
       <c r="B27" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="7" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1672,9 +1672,9 @@
     </row>
     <row r="29" ht="12.0" customHeight="1">
       <c r="B29" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="7" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1698,7 +1698,7 @@
       <c r="B32" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="8">
         <v>-1.0E20</v>
       </c>
     </row>
@@ -1706,7 +1706,7 @@
       <c r="B33" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="8" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1744,7 +1744,7 @@
       <c r="B39" t="s">
         <v>10</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="7" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1758,7 +1758,7 @@
     </row>
     <row r="41" ht="12.0" customHeight="1">
       <c r="B41" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C41" t="s">
         <v>37</v>
@@ -1776,7 +1776,7 @@
       <c r="B43" t="s">
         <v>16</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="7" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1784,7 +1784,7 @@
       <c r="B44" t="s">
         <v>18</v>
       </c>
-      <c r="C44" s="7">
+      <c r="C44" s="8">
         <v>-1.0E20</v>
       </c>
     </row>
@@ -1808,7 +1808,7 @@
       <c r="B47" t="s">
         <v>25</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C47" s="7" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1816,7 +1816,7 @@
       <c r="B48" t="s">
         <v>39</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C48" s="7" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1830,7 +1830,7 @@
       <c r="B51" t="s">
         <v>10</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C51" s="7" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1844,7 +1844,7 @@
     </row>
     <row r="53" ht="12.0" customHeight="1">
       <c r="B53" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C53" t="s">
         <v>42</v>
@@ -1862,7 +1862,7 @@
       <c r="B55" t="s">
         <v>16</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="C55" s="7" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1870,7 +1870,7 @@
       <c r="B56" t="s">
         <v>18</v>
       </c>
-      <c r="C56" s="7">
+      <c r="C56" s="8">
         <v>-1.0E20</v>
       </c>
     </row>
@@ -1902,7 +1902,7 @@
       <c r="B60" t="s">
         <v>39</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="C60" s="7" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1916,7 +1916,7 @@
       <c r="B63" t="s">
         <v>10</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="C63" s="7" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1930,7 +1930,7 @@
     </row>
     <row r="65" ht="12.0" customHeight="1">
       <c r="B65" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C65" t="s">
         <v>45</v>
@@ -1948,7 +1948,7 @@
       <c r="B67" t="s">
         <v>16</v>
       </c>
-      <c r="C67" s="5" t="s">
+      <c r="C67" s="7" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1956,7 +1956,7 @@
       <c r="B68" t="s">
         <v>18</v>
       </c>
-      <c r="C68" s="7">
+      <c r="C68" s="8">
         <v>-1.0E20</v>
       </c>
     </row>
@@ -1988,7 +1988,7 @@
       <c r="B72" t="s">
         <v>39</v>
       </c>
-      <c r="C72" s="5" t="s">
+      <c r="C72" s="7" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2002,7 +2002,7 @@
       <c r="B75" t="s">
         <v>10</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="C75" s="7" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2016,7 +2016,7 @@
     </row>
     <row r="77" ht="12.0" customHeight="1">
       <c r="B77" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C77" t="s">
         <v>48</v>
@@ -2042,7 +2042,7 @@
       <c r="B80" t="s">
         <v>18</v>
       </c>
-      <c r="C80" s="7">
+      <c r="C80" s="8">
         <v>-1.0E20</v>
       </c>
     </row>
@@ -2074,7 +2074,7 @@
       <c r="B84" t="s">
         <v>39</v>
       </c>
-      <c r="C84" s="5" t="s">
+      <c r="C84" s="7" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2088,7 +2088,7 @@
       <c r="B87" t="s">
         <v>10</v>
       </c>
-      <c r="C87" s="5" t="s">
+      <c r="C87" s="7" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2102,7 +2102,7 @@
     </row>
     <row r="89" ht="12.0" customHeight="1">
       <c r="B89" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C89" t="s">
         <v>51</v>
@@ -2120,7 +2120,7 @@
       <c r="B91" t="s">
         <v>16</v>
       </c>
-      <c r="C91" s="5" t="s">
+      <c r="C91" s="7" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2128,7 +2128,7 @@
       <c r="B92" t="s">
         <v>18</v>
       </c>
-      <c r="C92" s="7">
+      <c r="C92" s="8">
         <v>-1.0E20</v>
       </c>
     </row>
@@ -2160,7 +2160,7 @@
       <c r="B96" t="s">
         <v>39</v>
       </c>
-      <c r="C96" s="5" t="s">
+      <c r="C96" s="7" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2174,7 +2174,7 @@
       <c r="B99" t="s">
         <v>10</v>
       </c>
-      <c r="C99" s="5" t="s">
+      <c r="C99" s="7" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2188,7 +2188,7 @@
     </row>
     <row r="101" ht="12.0" customHeight="1">
       <c r="B101" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C101" t="s">
         <v>48</v>
@@ -2214,7 +2214,7 @@
       <c r="B104" t="s">
         <v>18</v>
       </c>
-      <c r="C104" s="7">
+      <c r="C104" s="8">
         <v>-1.0E20</v>
       </c>
     </row>
@@ -2246,7 +2246,7 @@
       <c r="B108" t="s">
         <v>39</v>
       </c>
-      <c r="C108" s="5" t="s">
+      <c r="C108" s="7" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2260,7 +2260,7 @@
       <c r="B111" t="s">
         <v>10</v>
       </c>
-      <c r="C111" s="5" t="s">
+      <c r="C111" s="7" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
     </row>
     <row r="113" ht="12.0" customHeight="1">
       <c r="B113" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C113" t="s">
         <v>56</v>
@@ -2300,7 +2300,7 @@
       <c r="B116" t="s">
         <v>18</v>
       </c>
-      <c r="C116" s="7">
+      <c r="C116" s="8">
         <v>-1.0E20</v>
       </c>
     </row>
@@ -2320,164 +2320,157 @@
         <v>31</v>
       </c>
     </row>
-    <row r="119" ht="12.0" customHeight="1">
-      <c r="B119" t="s">
-        <v>25</v>
-      </c>
-      <c r="C119" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="120" ht="12.0" customHeight="1"/>
+    <row r="119" ht="12.0" customHeight="1"/>
+    <row r="120" ht="12.0" customHeight="1">
+      <c r="A120" t="s">
+        <v>58</v>
+      </c>
+    </row>
     <row r="121" ht="12.0" customHeight="1">
-      <c r="A121" t="s">
-        <v>58</v>
+      <c r="B121" t="s">
+        <v>10</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="122" ht="12.0" customHeight="1">
       <c r="B122" t="s">
-        <v>10</v>
-      </c>
-      <c r="C122" s="5" t="s">
-        <v>59</v>
+        <v>12</v>
+      </c>
+      <c r="C122" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="123" ht="12.0" customHeight="1">
       <c r="B123" t="s">
-        <v>12</v>
-      </c>
-      <c r="C123" t="s">
-        <v>13</v>
+        <v>2</v>
+      </c>
+      <c r="C123" s="13">
+        <v>1.0</v>
       </c>
     </row>
     <row r="124" ht="12.0" customHeight="1">
       <c r="B124" t="s">
-        <v>3</v>
-      </c>
-      <c r="C124" s="13">
-        <v>1.0</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C124" s="13"/>
     </row>
     <row r="125" ht="12.0" customHeight="1">
       <c r="B125" t="s">
-        <v>15</v>
-      </c>
-      <c r="C125" s="13"/>
+        <v>16</v>
+      </c>
+      <c r="C125" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="126" ht="12.0" customHeight="1">
-      <c r="B126" t="s">
-        <v>16</v>
-      </c>
-      <c r="C126" t="s">
-        <v>60</v>
+      <c r="B126" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C126" s="14" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="127" ht="12.0" customHeight="1">
-      <c r="B127" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C127" s="14" t="s">
-        <v>62</v>
+      <c r="B127" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C127" s="16" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="128" ht="12.0" customHeight="1">
-      <c r="B128" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="C128" s="16" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="129" ht="12.0" customHeight="1">
-      <c r="B129" s="9"/>
-      <c r="C129" s="9"/>
-    </row>
+      <c r="B128" s="9"/>
+      <c r="C128" s="9"/>
+    </row>
+    <row r="129" ht="12.0" customHeight="1"/>
     <row r="130" ht="12.0" customHeight="1"/>
     <row r="131" ht="12.0" customHeight="1"/>
     <row r="132" ht="12.0" customHeight="1"/>
-    <row r="133" ht="12.0" customHeight="1"/>
+    <row r="133" ht="12.0" customHeight="1">
+      <c r="C133" s="13"/>
+    </row>
     <row r="134" ht="12.0" customHeight="1">
       <c r="C134" s="13"/>
     </row>
-    <row r="135" ht="12.0" customHeight="1">
-      <c r="C135" s="13"/>
-    </row>
-    <row r="136" ht="12.0" customHeight="1"/>
+    <row r="135" ht="12.0" customHeight="1"/>
+    <row r="136" ht="12.0" customHeight="1">
+      <c r="C136" s="13"/>
+    </row>
     <row r="137" ht="12.0" customHeight="1">
       <c r="C137" s="13"/>
     </row>
-    <row r="138" ht="12.0" customHeight="1">
-      <c r="C138" s="13"/>
-    </row>
+    <row r="138" ht="12.0" customHeight="1"/>
     <row r="139" ht="12.0" customHeight="1"/>
     <row r="140" ht="12.0" customHeight="1"/>
     <row r="141" ht="12.0" customHeight="1"/>
     <row r="142" ht="12.0" customHeight="1"/>
-    <row r="143" ht="12.0" customHeight="1"/>
+    <row r="143" ht="12.0" customHeight="1">
+      <c r="C143" s="13"/>
+    </row>
     <row r="144" ht="12.0" customHeight="1">
       <c r="C144" s="13"/>
     </row>
-    <row r="145" ht="12.0" customHeight="1">
-      <c r="C145" s="13"/>
-    </row>
-    <row r="146" ht="12.0" customHeight="1"/>
+    <row r="145" ht="12.0" customHeight="1"/>
+    <row r="146" ht="12.0" customHeight="1">
+      <c r="C146" s="13"/>
+    </row>
     <row r="147" ht="12.0" customHeight="1">
       <c r="C147" s="13"/>
     </row>
-    <row r="148" ht="12.0" customHeight="1">
-      <c r="C148" s="13"/>
-    </row>
+    <row r="148" ht="12.0" customHeight="1"/>
     <row r="149" ht="12.0" customHeight="1"/>
     <row r="150" ht="12.0" customHeight="1"/>
     <row r="151" ht="12.0" customHeight="1"/>
     <row r="152" ht="12.0" customHeight="1"/>
-    <row r="153" ht="12.0" customHeight="1"/>
+    <row r="153" ht="12.0" customHeight="1">
+      <c r="C153" s="13"/>
+    </row>
     <row r="154" ht="12.0" customHeight="1">
       <c r="C154" s="13"/>
     </row>
-    <row r="155" ht="12.0" customHeight="1">
-      <c r="C155" s="13"/>
-    </row>
-    <row r="156" ht="12.0" customHeight="1"/>
+    <row r="155" ht="12.0" customHeight="1"/>
+    <row r="156" ht="12.0" customHeight="1">
+      <c r="C156" s="13"/>
+    </row>
     <row r="157" ht="12.0" customHeight="1">
       <c r="C157" s="13"/>
     </row>
-    <row r="158" ht="12.0" customHeight="1">
-      <c r="C158" s="13"/>
-    </row>
+    <row r="158" ht="12.0" customHeight="1"/>
     <row r="159" ht="12.0" customHeight="1"/>
     <row r="160" ht="12.0" customHeight="1"/>
     <row r="161" ht="12.0" customHeight="1"/>
     <row r="162" ht="12.0" customHeight="1"/>
-    <row r="163" ht="12.0" customHeight="1"/>
+    <row r="163" ht="12.0" customHeight="1">
+      <c r="C163" s="13"/>
+    </row>
     <row r="164" ht="12.0" customHeight="1">
       <c r="C164" s="13"/>
     </row>
-    <row r="165" ht="12.0" customHeight="1">
-      <c r="C165" s="13"/>
-    </row>
-    <row r="166" ht="12.0" customHeight="1"/>
+    <row r="165" ht="12.0" customHeight="1"/>
+    <row r="166" ht="12.0" customHeight="1">
+      <c r="C166" s="13"/>
+    </row>
     <row r="167" ht="12.0" customHeight="1">
       <c r="C167" s="13"/>
     </row>
-    <row r="168" ht="12.0" customHeight="1">
-      <c r="C168" s="13"/>
-    </row>
+    <row r="168" ht="12.0" customHeight="1"/>
     <row r="169" ht="12.0" customHeight="1"/>
     <row r="170" ht="12.0" customHeight="1"/>
     <row r="171" ht="12.0" customHeight="1"/>
     <row r="172" ht="12.0" customHeight="1"/>
-    <row r="173" ht="12.0" customHeight="1"/>
+    <row r="173" ht="12.0" customHeight="1">
+      <c r="C173" s="13"/>
+    </row>
     <row r="174" ht="12.0" customHeight="1">
       <c r="C174" s="13"/>
     </row>
-    <row r="175" ht="12.0" customHeight="1">
-      <c r="C175" s="13"/>
-    </row>
-    <row r="176" ht="12.0" customHeight="1"/>
-    <row r="177" ht="12.0" customHeight="1">
-      <c r="C177" s="13"/>
-    </row>
+    <row r="175" ht="12.0" customHeight="1"/>
+    <row r="176" ht="12.0" customHeight="1">
+      <c r="C176" s="13"/>
+    </row>
+    <row r="177" ht="12.0" customHeight="1"/>
     <row r="178" ht="12.0" customHeight="1"/>
     <row r="179" ht="12.0" customHeight="1"/>
     <row r="180" ht="12.0" customHeight="1"/>
@@ -3289,7 +3282,6 @@
     <row r="986" ht="12.0" customHeight="1"/>
     <row r="987" ht="12.0" customHeight="1"/>
     <row r="988" ht="12.0" customHeight="1"/>
-    <row r="989" ht="12.0" customHeight="1"/>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
